--- a/storage/SA.xlsx
+++ b/storage/SA.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7710"/>
+    <workbookView windowWidth="20490" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SA" sheetId="1" r:id="rId1"/>
+    <sheet name="RSA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>BASE DE DADOS DE REGISTO DO BENEFICIAIRO - BIOSP</t>
   </si>
@@ -83,6 +84,9 @@
   </si>
   <si>
     <t>Actualizado em</t>
+  </si>
+  <si>
+    <t>RELATÓRIO DE BASE DE DADOS DE REGISTO DO BENEFICIAIRO - BIOSP -</t>
   </si>
 </sst>
 </file>
@@ -91,15 +95,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -124,6 +135,125 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -134,23 +264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,81 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -246,36 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -298,103 +309,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,90 +493,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -527,6 +547,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -538,6 +582,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +612,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -571,216 +635,182 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1047,8 +1077,8 @@
   </sheetPr>
   <dimension ref="A1:X809"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1067,162 +1097,162 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:24">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:24">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
     <row r="3" ht="33.75" spans="1:24">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:24">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1" spans="6:6">
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
@@ -2035,4 +2065,132 @@
   <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="71.25" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>